--- a/src/test/resources/TestData/ExecutionData.xlsx
+++ b/src/test/resources/TestData/ExecutionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\session2\DataDrivenFramework_3\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BE780A-9D70-4E8C-BE04-803762491034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B724F6A9-7C13-4FE8-9AA2-0CED2B8F5B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1152" windowWidth="22980" windowHeight="8268" xr2:uid="{5425767A-8DC3-4A11-B917-88CAB80B8467}"/>
+    <workbookView xWindow="60" yWindow="768" windowWidth="22980" windowHeight="8268" xr2:uid="{5425767A-8DC3-4A11-B917-88CAB80B8467}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Test case no</t>
   </si>
@@ -60,46 +60,52 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Tendulkar</t>
+  </si>
+  <si>
+    <t>TestCaseObjective</t>
+  </si>
+  <si>
+    <t>Verify Login works fine</t>
+  </si>
+  <si>
+    <t>Verify Add employee works fine</t>
+  </si>
+  <si>
+    <t>AddEmployee</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Sourav</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Ganguly</t>
+  </si>
+  <si>
+    <t>kamini</t>
+  </si>
+  <si>
+    <t>Daulat</t>
+  </si>
+  <si>
+    <t>Pamsare</t>
+  </si>
+  <si>
     <t>EmpiID</t>
-  </si>
-  <si>
-    <t>Sachin</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Tendulkar</t>
-  </si>
-  <si>
-    <t>TestCaseObjective</t>
-  </si>
-  <si>
-    <t>Verify Login works fine</t>
-  </si>
-  <si>
-    <t>Verify Add employee works fine</t>
-  </si>
-  <si>
-    <t>AddEmployee</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>Sourav</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Ganguly</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -482,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -494,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -502,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -514,19 +520,19 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -534,10 +540,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -546,19 +552,19 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
       <c r="J3">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -566,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -578,19 +584,19 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
       <c r="J4">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
